--- a/src/main/resources/validate_test.xlsx
+++ b/src/main/resources/validate_test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martin/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martin/install/IdeaProjects/javaee/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8815E828-A7D9-9041-AE6F-6EFC05E148A8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D329456-D09B-2C47-9540-0C2F2264B395}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="1560" windowWidth="28240" windowHeight="17440" xr2:uid="{BD253593-7D20-794B-A4B6-74DF1EDAF4B7}"/>
   </bookViews>
@@ -99,7 +99,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>412826198808158030</t>
+    <t>111111222222223333</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -472,7 +472,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40A1D828-0237-7342-9B70-D3DC417E5BE7}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
